--- a/degerler.xlsx
+++ b/degerler.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\PycharmProjects\akillievodev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542A8829-AF3A-4130-8A48-658C2755E530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A11F07-C259-4B60-B8C4-8C8955ECB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>bilgisayar</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>klima</t>
+  </si>
+  <si>
+    <t>öncelikler</t>
+  </si>
+  <si>
+    <t>ötelenemez</t>
+  </si>
+  <si>
+    <t>ötelenebilir</t>
+  </si>
+  <si>
+    <t>sarjaleti</t>
+  </si>
+  <si>
+    <t>esarj</t>
+  </si>
+  <si>
+    <t>firin</t>
   </si>
   <si>
     <t>camasir</t>
@@ -69,9 +87,6 @@
     <t>aydinlatma</t>
   </si>
   <si>
-    <t>firin</t>
-  </si>
-  <si>
     <t>sackuru</t>
   </si>
 </sst>
@@ -79,12 +94,39 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -108,13 +150,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -396,79 +448,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="14" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="15.42578125" customWidth="1"/>
     <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="T1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
       <c r="B2">
@@ -519,9 +584,15 @@
       <c r="Q2">
         <v>700</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3">
@@ -572,9 +643,15 @@
       <c r="Q3">
         <v>700</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4">
@@ -625,9 +702,15 @@
       <c r="Q4">
         <v>700</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5">
@@ -678,9 +761,15 @@
       <c r="Q5">
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6">
@@ -731,9 +820,15 @@
       <c r="Q6">
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7">
@@ -784,9 +879,15 @@
       <c r="Q7">
         <v>700</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8">
@@ -822,7 +923,7 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>300</v>
       </c>
       <c r="N8">
@@ -837,9 +938,15 @@
       <c r="Q8">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9">
@@ -890,9 +997,15 @@
       <c r="Q9">
         <v>700</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10">
@@ -943,9 +1056,15 @@
       <c r="Q10">
         <v>700</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11">
@@ -996,9 +1115,15 @@
       <c r="Q11">
         <v>700</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12">
@@ -1049,9 +1174,15 @@
       <c r="Q12">
         <v>700</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13">
@@ -1073,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1102,9 +1233,15 @@
       <c r="Q13">
         <v>700</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14">
@@ -1126,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1155,9 +1292,15 @@
       <c r="Q14">
         <v>700</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15">
@@ -1208,9 +1351,15 @@
       <c r="Q15">
         <v>700</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16">
@@ -1261,9 +1410,15 @@
       <c r="Q16">
         <v>700</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17">
@@ -1314,16 +1469,22 @@
       <c r="Q17">
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18">
         <v>28</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>1080</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1367,16 +1528,22 @@
       <c r="Q18">
         <v>700</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19">
         <v>34</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>1080</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1420,19 +1587,25 @@
       <c r="Q19">
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="R19">
+        <v>11000</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20">
         <v>28</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>1080</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1444,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1458,7 +1631,7 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>300</v>
       </c>
       <c r="N20">
@@ -1473,9 +1646,15 @@
       <c r="Q20">
         <v>700</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="R20">
+        <v>11000</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21">
@@ -1485,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1497,7 +1676,7 @@
         <v>86</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1526,9 +1705,15 @@
       <c r="Q21">
         <v>700</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="R21">
+        <v>11000</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22">
@@ -1541,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="F22">
         <v>35</v>
@@ -1550,7 +1735,7 @@
         <v>86</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1579,9 +1764,15 @@
       <c r="Q22">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="R22">
+        <v>11000</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23">
@@ -1594,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>38</v>
+        <v>900</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1603,7 +1794,7 @@
         <v>86</v>
       </c>
       <c r="H23">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1632,9 +1823,15 @@
       <c r="Q23">
         <v>700</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="R23">
+        <v>11000</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24">
@@ -1685,9 +1882,15 @@
       <c r="Q24">
         <v>700</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25">
@@ -1706,7 +1909,7 @@
         <v>30</v>
       </c>
       <c r="G25">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1737,6 +1940,127 @@
       </c>
       <c r="Q25">
         <v>700</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>2</v>
+      </c>
+      <c r="S28" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/degerler.xlsx
+++ b/degerler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koray\PycharmProjects\akillievodev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macuser/PycharmProjects/untitled2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A11F07-C259-4B60-B8C4-8C8955ECB503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB69EF8-8AA8-1241-B5C1-9C844E9DBDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="4340" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -448,34 +448,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1"/>
-    <col min="19" max="19" width="34.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="25.83203125" customWidth="1"/>
+    <col min="19" max="19" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
@@ -532,7 +532,7 @@
       </c>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -1588,13 +1588,13 @@
         <v>700</v>
       </c>
       <c r="R19">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -1647,13 +1647,13 @@
         <v>700</v>
       </c>
       <c r="R20">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -1706,13 +1706,13 @@
         <v>700</v>
       </c>
       <c r="R21">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -1765,13 +1765,13 @@
         <v>700</v>
       </c>
       <c r="R22">
-        <v>11000</v>
+        <v>7500</v>
       </c>
       <c r="S22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -1824,13 +1824,13 @@
         <v>700</v>
       </c>
       <c r="R23">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -1948,118 +1948,581 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>30</v>
+      </c>
+      <c r="G26">
+        <v>86</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>300</v>
+      </c>
+      <c r="K26">
+        <v>130</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>700</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>300</v>
+      </c>
+      <c r="K27">
+        <v>130</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>700</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>34</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>300</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>700</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>35</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>300</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>700</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>300</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>700</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>35</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>300</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>700</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1000</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>350</v>
+      </c>
+      <c r="Q32">
+        <v>700</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>300</v>
+      </c>
+      <c r="N33">
+        <v>500</v>
+      </c>
+      <c r="O33">
+        <v>150</v>
+      </c>
+      <c r="P33">
+        <v>350</v>
+      </c>
+      <c r="Q33">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="P37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
         <v>1</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D38" s="1">
         <v>2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E38" s="1">
         <v>2</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K38" s="1">
         <v>1</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L38" s="1">
         <v>1</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M38" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N38" s="1">
         <v>1</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O38" s="1">
         <v>1</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P38" s="1">
         <v>1</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q38" s="1">
         <v>1</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R38" s="1">
         <v>2</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S38" s="1">
         <v>2</v>
       </c>
     </row>
